--- a/4_classification&evaluation/output/evaluation_precision_standard_deviation.xlsx
+++ b/4_classification&evaluation/output/evaluation_precision_standard_deviation.xlsx
@@ -1156,130 +1156,130 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8168853728892534</v>
+        <v>0.8396972991405803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03334210029982684</v>
+        <v>0.0312041741843776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7739188251618871</v>
+        <v>0.7987149222933083</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7950908858166923</v>
+        <v>0.8107406403421583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8185147007303205</v>
+        <v>0.8572729988052569</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8235324237221769</v>
+        <v>0.8475678443420379</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8733700290151903</v>
+        <v>0.8841900899201408</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8324282209600901</v>
+        <v>0.8233575453282475</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01076518731577133</v>
+        <v>0.0285476826768353</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8365187656931413</v>
+        <v>0.7933452821461611</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8307506302412923</v>
+        <v>0.7896813759716984</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8206799174541111</v>
+        <v>0.8460604917311199</v>
       </c>
       <c r="N6" t="n">
-        <v>0.823342670401494</v>
+        <v>0.8253475616378843</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8508491210104113</v>
+        <v>0.8623530151543735</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7594462895492863</v>
+        <v>0.7324787718191119</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05166630889348644</v>
+        <v>0.03013145022884374</v>
       </c>
       <c r="R6" t="n">
-        <v>0.733958817569581</v>
+        <v>0.702901543596162</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6917657045840407</v>
+        <v>0.7243672115139208</v>
       </c>
       <c r="T6" t="n">
-        <v>0.827988991295443</v>
+        <v>0.7327680454802696</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7322908880072069</v>
+        <v>0.7131031691811918</v>
       </c>
       <c r="V6" t="n">
-        <v>0.81122704629016</v>
+        <v>0.7892538893240154</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8202125323898073</v>
+        <v>0.807798954614249</v>
       </c>
       <c r="X6" t="n">
-        <v>0.008991497711328645</v>
+        <v>0.01904189432235215</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.81221757852077</v>
+        <v>0.7776350127413958</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8120889823905251</v>
+        <v>0.8053209309139101</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.819501702390903</v>
+        <v>0.8193198048885656</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8204968461634796</v>
+        <v>0.8019098320331717</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8367575524833589</v>
+        <v>0.834809192494202</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8162938621815732</v>
+        <v>0.8017485226484183</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02258125240060227</v>
+        <v>0.02187083570380738</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7944714623438028</v>
+        <v>0.7861734635827251</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7990143369175627</v>
+        <v>0.7917073965461062</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8092144563918758</v>
+        <v>0.8086021505376344</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.8212421735341939</v>
+        <v>0.7809199386553173</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.8575268817204301</v>
+        <v>0.841339663920309</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8243610942814212</v>
+        <v>0.825416323160782</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.04604448680565978</v>
+        <v>0.04874581339422589</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7912974172772606</v>
+        <v>0.7876899696048633</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7671172317257406</v>
+        <v>0.7581132322593422</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.8550555273815036</v>
+        <v>0.8578255675029868</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8122665864601349</v>
+        <v>0.8282556750298686</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8960687085624667</v>
+        <v>0.8951971714068487</v>
       </c>
     </row>
     <row r="7">
@@ -1289,19 +1289,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8503641615949924</v>
+        <v>0.8487159913715232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04776651861018487</v>
+        <v>0.04655246907341332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8472449114024109</v>
+        <v>0.8484393869529895</v>
       </c>
       <c r="E7" t="n">
         <v>0.7751970057972255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8843830005120327</v>
+        <v>0.8749476738441084</v>
       </c>
       <c r="G7" t="n">
         <v>0.8300051203277011</v>
@@ -1310,10 +1310,10 @@
         <v>0.9149907699355916</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8650388708177061</v>
+        <v>0.8606353889948695</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03082871612338387</v>
+        <v>0.03018071514868441</v>
       </c>
       <c r="K7" t="n">
         <v>0.8354329817033196</v>
@@ -1322,43 +1322,43 @@
         <v>0.8293368620792969</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8746931568326256</v>
+        <v>0.863684452275534</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8599590373783923</v>
       </c>
       <c r="O7" t="n">
         <v>0.9147636115378049</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8424118199613273</v>
+        <v>0.8396140992435329</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03960895077589193</v>
+        <v>0.04151149063805919</v>
       </c>
       <c r="R7" t="n">
-        <v>0.809441489361702</v>
+        <v>0.827851481017939</v>
       </c>
       <c r="S7" t="n">
-        <v>0.821908773284485</v>
+        <v>0.8042205054064636</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8671997059093833</v>
+        <v>0.8435288050654922</v>
       </c>
       <c r="U7" t="n">
         <v>0.8052227342549924</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9082863969960744</v>
+        <v>0.9172469704727769</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8549274283698096</v>
+        <v>0.8497538216940527</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03720974692438874</v>
+        <v>0.03232703380369924</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.842779700702433</v>
+        <v>0.845905867182463</v>
       </c>
       <c r="Z7" t="n">
         <v>0.7913556292164101</v>
@@ -1367,43 +1367,43 @@
         <v>0.8854699472696077</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8577604405278428</v>
+        <v>0.8537326251580331</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8972714241327544</v>
+        <v>0.8723050396437493</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.8754127222478628</v>
+        <v>0.8647471614363464</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04319016601195173</v>
+        <v>0.03459058903636719</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.9004688832054563</v>
+        <v>0.8799547969760736</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7978494623655914</v>
+        <v>0.8021438796231567</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.8966322616577286</v>
+        <v>0.8736047107014848</v>
       </c>
       <c r="AI7" t="n">
         <v>0.8615322986100974</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9205807054004397</v>
+        <v>0.9065001212709193</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8404846004677561</v>
+        <v>0.8420709957133198</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.03048042981506121</v>
+        <v>0.02553522393627148</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.845905867182463</v>
+        <v>0.8370406189555125</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.7912154939319626</v>
+        <v>0.8078975110134604</v>
       </c>
       <c r="AO7" t="n">
         <v>0.8456757117622992</v>
@@ -1412,7 +1412,7 @@
         <v>0.8332203995081385</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.886405529953917</v>
+        <v>0.8865207373271887</v>
       </c>
     </row>
   </sheetData>
